--- a/assets/tabulados/R9_responsable_dia.xlsx
+++ b/assets/tabulados/R9_responsable_dia.xlsx
@@ -6,8 +6,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Responsable_dia" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Responsable_dia'!$A$1:$Q$38</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -1110,8 +1113,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot;%&quot;"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1119,16 +1125,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1136,12 +1158,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,2025 +1487,2047 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="13.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="17.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="19.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="12.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="22.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="2" t="s">
         <v>363</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
